--- a/sample2.xlsx
+++ b/sample2.xlsx
@@ -448,38 +448,38 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>B0D13XXKHV</t>
+          <t>B0D6B66HKP</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>MWA-200</t>
+          <t>TPC-55D</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>MWA-200</t>
+          <t>TPC-55D</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>17.06</v>
+        <v>-448.49</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>25.86%</t>
+          <t>-76.80%</t>
         </is>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>65.98999999999999</v>
+        <v>583.96</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -488,35 +488,35 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>-14.21</v>
+        <v>-96.34999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>B0CMQ8LNWQ</t>
+          <t>B0BRKCHCC4</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>MWC-50</t>
+          <t>TPM-140</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>MWC-50</t>
+          <t>TPM-140</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>-0.86</v>
+        <v>-4.25</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-1.50%</t>
         </is>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>283.97</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -534,27 +534,35 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>-94.01000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>B09SYN2DH7</t>
-        </is>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+          <t>B0B4JR35TV</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>TPM-135D</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>TPM-135D</t>
+        </is>
+      </c>
       <c r="D4" s="2">
-        <v>-0.96</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>16.27%</t>
         </is>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -563,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>419.97</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -572,31 +580,31 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>-25.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>B0D6B66HKP</t>
+          <t>B0BKZFSMQQ</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>TPC-55D</t>
+          <t>MWM-140</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>TPC-55D</t>
+          <t>MWM-140</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>-2.59</v>
+        <v>21.52</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0.89%</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F5" s="2">
@@ -609,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>291.98</v>
+        <v>191.98</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -618,31 +626,23 @@
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>-33.54</v>
+        <v>-44.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>B0CSFP3THQ</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>TPM-140L</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>TMP-140L</t>
-        </is>
-      </c>
+          <t>B09SYN4X6M</t>
+        </is>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>-5.09</v>
+        <v>0.49</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4.63%</t>
+          <t>2.47%</t>
         </is>
       </c>
       <c r="F6" s="2">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>109.99</v>
+        <v>19.99</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -664,27 +664,35 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>-39.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>B09SYN4X6M</t>
-        </is>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+          <t>B097MBSQR7</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>MWM-130D</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>MWM-130D</t>
+        </is>
+      </c>
       <c r="D7" s="2">
-        <v>-7.82</v>
+        <v>25.84</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>17.23%</t>
         </is>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -693,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>149.99</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -702,27 +710,19 @@
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>B097MBSQR7</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>MWM-130D</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>MWM-130D</t>
-        </is>
-      </c>
+          <t>B09SYN2DH7</t>
+        </is>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>-8.32</v>
+        <v>-1.1</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -748,27 +748,27 @@
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>-5.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>B0CZNYBNTV</t>
+          <t>B0CMQ8LNWQ</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>MWM-175</t>
+          <t>MWC-50</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>MWM-175</t>
+          <t>MWC-50</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>-18.32</v>
+        <v>-0.98</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -794,35 +794,35 @@
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>-16.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>B0BKZFSMQQ</t>
+          <t>B0D13XXKHV</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>MWM-140</t>
+          <t>MWA-200</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>MWM-140</t>
+          <t>MWA-200</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>-19.26</v>
+        <v>-11.99</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-20.07%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -831,36 +831,36 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>95.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>-54.55</v>
+        <v>-11.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>B0D6W3WCF1</t>
+          <t>B0CSFP3THQ</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>MWA-200L</t>
+          <t>TPM-140L</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>MWA-200L</t>
+          <t>TMP-140L</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>-63.93</v>
+        <v>-213.29</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -883,38 +883,38 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>-18.9</v>
+        <v>-24.71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>B0B4JR35TV</t>
+          <t>B0CZNYBNTV</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>TPM-135D</t>
+          <t>MWM-175</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>TPM-135D</t>
+          <t>MWM-175</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>-151.35</v>
+        <v>-162.91</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-108.11%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -923,62 +923,62 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>139.99</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>-34.66</v>
+        <v>-7.59</v>
       </c>
     </row>
     <row r="13" ht="16.8" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>B0BRKCHCC4</t>
+          <t>B0D6W3WCF1</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>TPM-140</t>
+          <t>MWA-200L</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>TPM-140</t>
+          <t>MWA-200L</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>-200.16</v>
+        <v>-92.06</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-68.09%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F13" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>293.97</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>-186.02</v>
+        <v>-53.55</v>
       </c>
     </row>
   </sheetData>
